--- a/Final/Scraping_Cleaning/ff_results_2018_2020.xlsx
+++ b/Final/Scraping_Cleaning/ff_results_2018_2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannymorgan/Desktop/ESPN_Fantasy_Football_History/Final/Scraping_Cleaning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C651C-B251-DA4E-9EA4-3999EE7F738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30840" yWindow="-480" windowWidth="32160" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scores_over_150" sheetId="1" r:id="rId1"/>
@@ -13,11 +19,13 @@
     <sheet name="low_score" sheetId="4" r:id="rId4"/>
     <sheet name="points_allowed" sheetId="5" r:id="rId5"/>
     <sheet name="Record_vs_opponent" sheetId="6" r:id="rId6"/>
-    <sheet name="scores_under_100" sheetId="7" r:id="rId7"/>
-    <sheet name="total_record" sheetId="8" r:id="rId8"/>
-    <sheet name="high_score" sheetId="9" r:id="rId9"/>
+    <sheet name="record_horizontal" sheetId="10" r:id="rId7"/>
+    <sheet name="record_vertical" sheetId="11" r:id="rId8"/>
+    <sheet name="scores_under_100" sheetId="7" r:id="rId9"/>
+    <sheet name="total_record" sheetId="8" r:id="rId10"/>
+    <sheet name="high_score" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -99,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +171,113 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446C24B-81E9-9F48-9437-3FFC637A3B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14287500" cy="18542000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F1F0A1-CF28-224E-A5B9-90AF24E46D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19050000" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -209,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +355,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +407,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,14 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -489,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -497,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -505,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -513,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -521,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -529,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -537,12 +687,247 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>191.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>183.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>180.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>172.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>163.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>156.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>156.41999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>153.66</v>
       </c>
     </row>
   </sheetData>
@@ -551,14 +936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -575,7 +960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -592,7 +977,7 @@
         <v>1704.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -609,7 +994,7 @@
         <v>1539.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -626,7 +1011,7 @@
         <v>1495.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -643,7 +1028,7 @@
         <v>1460.38</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -660,7 +1045,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -677,7 +1062,7 @@
         <v>1615.62</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -694,7 +1079,7 @@
         <v>1475.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -711,7 +1096,7 @@
         <v>1443.82</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -728,7 +1113,7 @@
         <v>1346.74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -745,7 +1130,7 @@
         <v>1365.02</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -762,7 +1147,7 @@
         <v>1605.9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -779,7 +1164,7 @@
         <v>1721.54</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -796,7 +1181,7 @@
         <v>1466.68</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -813,7 +1198,7 @@
         <v>1608.06</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -830,7 +1215,7 @@
         <v>1387.84</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -847,7 +1232,7 @@
         <v>1435.52</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -864,7 +1249,7 @@
         <v>1341.82</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -881,7 +1266,7 @@
         <v>1553.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -898,7 +1283,7 @@
         <v>1403.38</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -912,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>1255.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1255.0999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -932,7 +1317,7 @@
         <v>1714.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -949,7 +1334,7 @@
         <v>1644.56</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -966,7 +1351,7 @@
         <v>1467.66</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1368,7 @@
         <v>1591.98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1000,7 +1385,7 @@
         <v>1509.86</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1402,7 @@
         <v>1456.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1419,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1436,7 @@
         <v>1429.6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1453,7 @@
         <v>1313.18</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1091,14 +1476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1499,7 @@
         <v>4954.76</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1122,15 +1507,15 @@
         <v>4780.92</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4577.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4577.8599999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1523,7 @@
         <v>4554.22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1146,23 +1531,23 @@
         <v>4507.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4502.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4502.4799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4244.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>4244.3999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1555,7 @@
         <v>4240.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1178,12 +1563,12 @@
         <v>4235.46</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4180.1</v>
+        <v>4180.1000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1192,14 +1577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1600,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1608,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1616,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1624,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1247,31 +1632,31 @@
         <v>63.78</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>64.95999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>64.959999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66.59999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>74.26000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>74.260000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1664,7 @@
         <v>79.34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1293,14 +1678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1316,39 +1701,39 @@
         <v>4642.26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4638.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4638.1000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4510.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4510.8999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4496.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4496.8599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4495.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4495.3999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1741,7 @@
         <v>4490.82</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1749,7 @@
         <v>4421.16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1757,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1765,7 @@
         <v>4359.16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1394,14 +1779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +2038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +2052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +2066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1737,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2073,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2269,7 +2654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2283,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2297,7 +2682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2325,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2353,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2381,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2465,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2507,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2521,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2591,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2647,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2681,14 +3066,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E2CF2-4F6D-674C-9561-3749501D58C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC20944A-ACF0-FC41-84E7-25DEB2A93CF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +3107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +3115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +3123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2720,7 +3131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +3139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +3163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +3171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2768,247 +3179,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>191.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>183.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>180.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>172.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>167.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>163.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>156.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>156.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>155.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>153.66</v>
       </c>
     </row>
   </sheetData>

--- a/Final/Scraping_Cleaning/ff_results_2018_2020.xlsx
+++ b/Final/Scraping_Cleaning/ff_results_2018_2020.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannymorgan/Desktop/ESPN_Fantasy_Football_History/Final/Scraping_Cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C651C-B251-DA4E-9EA4-3999EE7F738A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630129EA-B2BC-A64B-8215-BD9C48FDAE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-480" windowWidth="32160" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="-1480" windowWidth="38220" windowHeight="18280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scores_over_150" sheetId="1" r:id="rId1"/>
     <sheet name="standings_by_year" sheetId="2" r:id="rId2"/>
-    <sheet name="total_points" sheetId="3" r:id="rId3"/>
-    <sheet name="low_score" sheetId="4" r:id="rId4"/>
-    <sheet name="points_allowed" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_vs_opponent" sheetId="6" r:id="rId6"/>
-    <sheet name="record_horizontal" sheetId="10" r:id="rId7"/>
-    <sheet name="record_vertical" sheetId="11" r:id="rId8"/>
-    <sheet name="scores_under_100" sheetId="7" r:id="rId9"/>
-    <sheet name="total_record" sheetId="8" r:id="rId10"/>
-    <sheet name="high_score" sheetId="9" r:id="rId11"/>
+    <sheet name="total points visual" sheetId="12" r:id="rId3"/>
+    <sheet name="total_points" sheetId="3" r:id="rId4"/>
+    <sheet name="low_score" sheetId="4" r:id="rId5"/>
+    <sheet name="points_allowed" sheetId="5" r:id="rId6"/>
+    <sheet name="Record_vs_opponent" sheetId="6" r:id="rId7"/>
+    <sheet name="record_horizontal" sheetId="10" r:id="rId8"/>
+    <sheet name="record_vertical" sheetId="11" r:id="rId9"/>
+    <sheet name="scores_under_100" sheetId="7" r:id="rId10"/>
+    <sheet name="total_record" sheetId="8" r:id="rId11"/>
+    <sheet name="high_score" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -186,6 +187,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64EC2B0-0520-594E-91AA-55A1F56E989D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="190500"/>
+          <a:ext cx="14287500" cy="10909300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -231,27 +281,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F1F0A1-CF28-224E-A5B9-90AF24E46D6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A10E484-AE65-4444-92E3-23F9113FD363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -267,7 +317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="825500" y="190500"/>
           <a:ext cx="19050000" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -701,6 +751,107 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -834,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -939,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1476,6 +1627,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776FE01C-10C5-2C4B-8B22-E3C4B41F4664}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1576,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1677,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1778,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
@@ -3065,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E2CF2-4F6D-674C-9561-3749501D58C0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3078,116 +3244,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC20944A-ACF0-FC41-84E7-25DEB2A93CF0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>